--- a/hands_on_exercises/session06/Patient Story - Mapping v2.xlsx
+++ b/hands_on_exercises/session06/Patient Story - Mapping v2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\FBT2K24\hands_on_exercises\session04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\FBT2K24\hands_on_exercises\session06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB8EB78-CE85-460D-93C5-40CACCFA15C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8277FFA-D7EF-4398-8049-FC9B9CD130EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FirstPage" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,21 @@
     <sheet name="DO2" sheetId="9" r:id="rId9"/>
     <sheet name="PHR" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -983,10 +994,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1001,10 +1012,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2562,15 +2573,15 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.28515625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
